--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="447">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1221,15 +1221,6 @@
     <t>vftest</t>
   </si>
   <si>
-    <t>https://10.162.53.75:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>HALEEMI</t>
-  </si>
-  <si>
-    <t>Mar@2019</t>
-  </si>
-  <si>
     <t>Dam_Login</t>
   </si>
   <si>
@@ -1372,6 +1363,18 @@
   </si>
   <si>
     <t>AccountNo--10077053778</t>
+  </si>
+  <si>
+    <t>QA12</t>
+  </si>
+  <si>
+    <t>https://10.162.54.242:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2019</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2055,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2064,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2097,16 +2100,16 @@
         <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="F2" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="G2" t="s">
         <v>341</v>
@@ -2224,7 +2227,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2240,7 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,8 +2285,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E815"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="H423" sqref="H423"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,9 +4281,7 @@
       <c r="A129" s="16">
         <v>1</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="B129" s="19"/>
       <c r="C129" s="17" t="s">
         <v>27</v>
       </c>
@@ -4295,9 +4296,7 @@
       <c r="A130" s="16">
         <v>2</v>
       </c>
-      <c r="B130" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="B130" s="19"/>
       <c r="C130" s="18" t="s">
         <v>29</v>
       </c>
@@ -4363,9 +4362,7 @@
       <c r="A134" s="16">
         <v>6</v>
       </c>
-      <c r="B134" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="B134" s="19"/>
       <c r="C134" s="18" t="s">
         <v>27</v>
       </c>
@@ -4380,9 +4377,7 @@
       <c r="A135" s="16">
         <v>7</v>
       </c>
-      <c r="B135" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="B135" s="19"/>
       <c r="C135" s="18" t="s">
         <v>76</v>
       </c>
@@ -13471,16 +13466,16 @@
         <v>1</v>
       </c>
       <c r="B767" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C767" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D767" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E767" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
@@ -13488,16 +13483,16 @@
         <v>2</v>
       </c>
       <c r="B768" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C768" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D768" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E768" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -13505,16 +13500,16 @@
         <v>3</v>
       </c>
       <c r="B769" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C769" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D769" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E769" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
@@ -13522,16 +13517,16 @@
         <v>1</v>
       </c>
       <c r="B771" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C771" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D771" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E771" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
@@ -13539,16 +13534,16 @@
         <v>2</v>
       </c>
       <c r="B772" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C772" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D772" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E772" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -13556,16 +13551,16 @@
         <v>3</v>
       </c>
       <c r="B773" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C773" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D773" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E773" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
@@ -13573,16 +13568,16 @@
         <v>4</v>
       </c>
       <c r="B774" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C774" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D774" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E774" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
@@ -13590,16 +13585,16 @@
         <v>1</v>
       </c>
       <c r="B776" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C776" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D776" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E776" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
@@ -13607,16 +13602,16 @@
         <v>2</v>
       </c>
       <c r="B777" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C777" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D777" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E777" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
@@ -13624,16 +13619,16 @@
         <v>3</v>
       </c>
       <c r="B778" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C778" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D778" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E778" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
@@ -13641,16 +13636,16 @@
         <v>4</v>
       </c>
       <c r="B779" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C779" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D779" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E779" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
@@ -13658,16 +13653,16 @@
         <v>1</v>
       </c>
       <c r="B781" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C781" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D781" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E781" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -13675,16 +13670,16 @@
         <v>2</v>
       </c>
       <c r="B782" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C782" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D782" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E782" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
@@ -13692,16 +13687,16 @@
         <v>3</v>
       </c>
       <c r="B783" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C783" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D783" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E783" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -13709,16 +13704,16 @@
         <v>4</v>
       </c>
       <c r="B784" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C784" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D784" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E784" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
@@ -13726,16 +13721,16 @@
         <v>1</v>
       </c>
       <c r="B786" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C786" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D786" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E786" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
@@ -13743,16 +13738,16 @@
         <v>2</v>
       </c>
       <c r="B787" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C787" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D787" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E787" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
@@ -13760,16 +13755,16 @@
         <v>3</v>
       </c>
       <c r="B788" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C788" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D788" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E788" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -13777,16 +13772,16 @@
         <v>4</v>
       </c>
       <c r="B789" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C789" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D789" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E789" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -13794,16 +13789,16 @@
         <v>1</v>
       </c>
       <c r="B791" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C791" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D791" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E791" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
@@ -13811,16 +13806,16 @@
         <v>2</v>
       </c>
       <c r="B792" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C792" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D792" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E792" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
@@ -13828,16 +13823,16 @@
         <v>3</v>
       </c>
       <c r="B793" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C793" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D793" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E793" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -13845,16 +13840,16 @@
         <v>4</v>
       </c>
       <c r="B794" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C794" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D794" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E794" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
@@ -13862,16 +13857,16 @@
         <v>1</v>
       </c>
       <c r="B796" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C796" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D796" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E796" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
@@ -13879,16 +13874,16 @@
         <v>2</v>
       </c>
       <c r="B797" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C797" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D797" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E797" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
@@ -13896,16 +13891,16 @@
         <v>3</v>
       </c>
       <c r="B798" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C798" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D798" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E798" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
@@ -13913,16 +13908,16 @@
         <v>4</v>
       </c>
       <c r="B799" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C799" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D799" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E799" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
@@ -13930,16 +13925,16 @@
         <v>5</v>
       </c>
       <c r="B800" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C800" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D800" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E800" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
@@ -13947,16 +13942,16 @@
         <v>1</v>
       </c>
       <c r="B802" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C802" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D802" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E802" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
@@ -13964,16 +13959,16 @@
         <v>2</v>
       </c>
       <c r="B803" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C803" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D803" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E803" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
@@ -13981,16 +13976,16 @@
         <v>3</v>
       </c>
       <c r="B804" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C804" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D804" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E804" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
@@ -13998,16 +13993,16 @@
         <v>4</v>
       </c>
       <c r="B805" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C805" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D805" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E805" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
@@ -14015,16 +14010,16 @@
         <v>1</v>
       </c>
       <c r="B807" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C807" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D807" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E807" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
@@ -14032,16 +14027,16 @@
         <v>2</v>
       </c>
       <c r="B808" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C808" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D808" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E808" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
@@ -14049,16 +14044,16 @@
         <v>3</v>
       </c>
       <c r="B809" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C809" s="18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D809" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E809" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
@@ -14066,16 +14061,16 @@
         <v>4</v>
       </c>
       <c r="B810" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C810" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D810" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E810" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
@@ -14083,16 +14078,16 @@
         <v>5</v>
       </c>
       <c r="B811" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C811" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D811" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E811" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
@@ -14756,7 +14751,7 @@
         <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
